--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E8" s="3">
         <v>23700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E9" s="3">
         <v>11900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E10" s="3">
         <v>11800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-800</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,28 +834,31 @@
         <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1031,43 +1065,49 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E21" s="3">
         <v>13400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,66 +1135,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1379,43 +1449,49 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1618,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E41" s="3">
         <v>27800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,23 +1680,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,23 +1712,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E44" s="3">
         <v>23100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,22 +1744,25 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1677,23 +1776,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E46" s="3">
         <v>52900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1840,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E48" s="3">
         <v>57200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1860,14 +1980,14 @@
         <v>2900</v>
       </c>
       <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2032,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E54" s="3">
         <v>113000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2094,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,22 +2124,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1300</v>
       </c>
       <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>1300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,23 +2156,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2188,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,14 +2232,14 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2109,23 +2252,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2380,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2554,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2682,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E76" s="3">
         <v>98000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>10300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2858,28 +3079,31 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2945,28 +3175,31 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E8" s="3">
         <v>20700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15900</v>
       </c>
-      <c r="G8" s="3">
-        <v>14400</v>
-      </c>
       <c r="H8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I8" s="3">
         <v>7500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E9" s="3">
         <v>9800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10700</v>
       </c>
-      <c r="G9" s="3">
-        <v>15200</v>
-      </c>
       <c r="H9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E10" s="3">
         <v>10900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
-        <v>-800</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>1300</v>
       </c>
       <c r="F12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
-        <v>600</v>
-      </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12100</v>
       </c>
-      <c r="G17" s="3">
-        <v>17000</v>
-      </c>
       <c r="H17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,46 +1102,52 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E21" s="3">
         <v>7100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6700</v>
       </c>
-      <c r="G21" s="3">
-        <v>700</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,57 +1178,63 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>500</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1196,14 +1242,17 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1452,46 +1522,52 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1705,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E41" s="3">
         <v>35200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,26 +1773,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,26 +1808,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E44" s="3">
         <v>27400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,25 +1843,28 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1779,26 +1878,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E46" s="3">
         <v>66300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,26 +1948,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E48" s="3">
         <v>49600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>57200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,26 +2088,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
         <v>2900</v>
       </c>
       <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2158,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,26 +2225,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,25 +2258,28 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1300</v>
       </c>
       <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>1300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2159,26 +2293,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,26 +2328,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2235,14 +2378,14 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2255,26 +2398,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,26 +2538,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E66" s="3">
         <v>14900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,26 +2728,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E72" s="3">
         <v>500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +2868,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E76" s="3">
         <v>104000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E89" s="3">
         <v>7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-6900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6600</v>
       </c>
-      <c r="G102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E8" s="3">
         <v>25900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E10" s="3">
         <v>13200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1300</v>
       </c>
       <c r="F12" s="3">
         <v>1300</v>
       </c>
       <c r="G12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>15000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1105,49 +1139,55 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E21" s="3">
         <v>15600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1525,49 +1595,55 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1792,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
         <v>41500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,29 +1866,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,29 +1904,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E44" s="3">
         <v>31600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,28 +1942,31 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1881,29 +1980,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E46" s="3">
         <v>79000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,29 +2056,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E48" s="3">
         <v>41000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>49600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>63700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,29 +2208,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2900</v>
       </c>
       <c r="F52" s="3">
         <v>2900</v>
       </c>
       <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,29 +2284,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E54" s="3">
         <v>122000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,29 +2356,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,28 +2392,31 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1300</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>1300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2296,29 +2430,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,29 +2468,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2381,14 +2524,14 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2401,29 +2544,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2696,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +2902,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,29 +3054,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E76" s="3">
         <v>110600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>104000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,13 +3679,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E8" s="3">
         <v>20400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>9600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1300</v>
       </c>
       <c r="G12" s="3">
         <v>1300</v>
       </c>
       <c r="H12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1142,52 +1175,58 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1263,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1598,52 +1667,58 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1878,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,32 +1958,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,32 +1999,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E44" s="3">
         <v>33000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>31600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>27400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,31 +2040,34 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1983,8 +2081,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1992,23 +2093,23 @@
         <v>81300</v>
       </c>
       <c r="E46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F46" s="3">
         <v>79000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,32 +2163,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E48" s="3">
         <v>37800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>49600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>63700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,32 +2327,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2900</v>
       </c>
       <c r="G52" s="3">
         <v>2900</v>
       </c>
       <c r="H52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2409,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E54" s="3">
         <v>123100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,32 +2486,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,31 +2525,34 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1300</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>1300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2433,32 +2566,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,32 +2607,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,13 +2648,16 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -2527,14 +2669,14 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2547,32 +2689,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,32 +2853,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,32 +3075,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E72" s="3">
         <v>9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,32 +3239,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E76" s="3">
         <v>112800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>104000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>6800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,17 +3912,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2500</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>20500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,161 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E8" s="3">
         <v>15100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E9" s="3">
         <v>8300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,40 +827,43 @@
         <v>6800</v>
       </c>
       <c r="E10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1300</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
       </c>
       <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1178,14 +1212,17 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,40 +1230,43 @@
         <v>5900</v>
       </c>
       <c r="E21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F21" s="3">
         <v>9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,90 +1306,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1670,55 +1740,61 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +1965,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>40000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,35 +2051,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,35 +2095,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E44" s="3">
         <v>37600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>33000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>31600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,34 +2139,37 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>300</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2084,35 +2183,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>81300</v>
+        <v>80100</v>
       </c>
       <c r="E46" s="3">
         <v>81300</v>
       </c>
       <c r="F46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="G46" s="3">
         <v>79000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>66300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,35 +2271,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E48" s="3">
         <v>37700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2447,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2900</v>
       </c>
       <c r="H52" s="3">
         <v>2900</v>
       </c>
       <c r="I52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J52" s="3">
         <v>5500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2535,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E54" s="3">
         <v>122400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2617,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,34 +2659,37 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1300</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>1300</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2569,35 +2703,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2747,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2660,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2672,14 +2815,14 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2835,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3011,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,35 +3249,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3425,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E76" s="3">
         <v>112300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>104000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3437,40 +3636,43 @@
         <v>2800</v>
       </c>
       <c r="E83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3922,11 +4156,11 @@
         <v>-2900</v>
       </c>
       <c r="E96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2500</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="3">
         <v>8600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6800</v>
+        <v>11600</v>
       </c>
       <c r="E10" s="3">
         <v>6800</v>
       </c>
       <c r="F10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G10" s="3">
         <v>9600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1300</v>
       </c>
       <c r="I12" s="3">
         <v>1300</v>
       </c>
       <c r="J12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1215,58 +1249,64 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5900</v>
+        <v>12200</v>
       </c>
       <c r="E21" s="3">
         <v>5900</v>
       </c>
       <c r="F21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G21" s="3">
         <v>9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1743,58 +1813,64 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,38 +2144,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,38 +2191,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E44" s="3">
         <v>42200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>37600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>31600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>27400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,37 +2238,40 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>300</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2186,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E46" s="3">
         <v>80100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>81300</v>
       </c>
       <c r="F46" s="3">
         <v>81300</v>
       </c>
       <c r="G46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="H46" s="3">
         <v>79000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>66300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,38 +2379,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E48" s="3">
         <v>38000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>57200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,38 +2567,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2900</v>
       </c>
       <c r="I52" s="3">
         <v>2900</v>
       </c>
       <c r="J52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E54" s="3">
         <v>121700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2748,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,37 +2793,40 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1300</v>
       </c>
       <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>1300</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2706,38 +2840,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +2887,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2818,14 +2961,14 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +2981,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3169,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3423,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E72" s="3">
         <v>8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E76" s="3">
         <v>112200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>98000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
         <v>2800</v>
       </c>
       <c r="F83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4159,11 +4393,11 @@
         <v>-2900</v>
       </c>
       <c r="F96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2500</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E8" s="3">
         <v>24000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
         <v>11600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6800</v>
       </c>
       <c r="F10" s="3">
         <v>6800</v>
       </c>
       <c r="G10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H10" s="3">
         <v>9600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
       </c>
       <c r="J12" s="3">
         <v>1300</v>
       </c>
       <c r="K12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>16000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>8000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,61 +1286,67 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5900</v>
       </c>
       <c r="F21" s="3">
         <v>5900</v>
       </c>
       <c r="G21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H21" s="3">
         <v>9900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1816,61 +1886,67 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2139,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E41" s="3">
         <v>40700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,41 +2237,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,41 +2287,44 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E44" s="3">
         <v>39400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>37600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>31600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,40 +2337,43 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>300</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2288,41 +2387,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E46" s="3">
         <v>83100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>80100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>81300</v>
       </c>
       <c r="G46" s="3">
         <v>81300</v>
       </c>
       <c r="H46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="I46" s="3">
         <v>79000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>66300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,41 +2487,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E48" s="3">
         <v>39700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>57200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>58500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2687,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2900</v>
       </c>
       <c r="J52" s="3">
         <v>2900</v>
       </c>
       <c r="K52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E54" s="3">
         <v>127500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>121700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2807,29 +2941,29 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1300</v>
       </c>
       <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>1300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2843,41 +2977,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,41 +3027,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2952,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2964,14 +3107,14 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,41 +3127,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E76" s="3">
         <v>115900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>104000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2800</v>
       </c>
       <c r="F83" s="3">
         <v>2800</v>
       </c>
       <c r="G83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4396,11 +4630,11 @@
         <v>-2900</v>
       </c>
       <c r="G96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +4824,49 @@
         <v>-2900</v>
       </c>
       <c r="E100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E8" s="3">
         <v>16100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E9" s="3">
         <v>8800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E10" s="3">
         <v>7300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6800</v>
       </c>
       <c r="G10" s="3">
         <v>6800</v>
       </c>
       <c r="H10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I10" s="3">
         <v>9600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-300</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1300</v>
       </c>
       <c r="K12" s="3">
         <v>1300</v>
       </c>
       <c r="L12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,64 +1322,70 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E21" s="3">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5900</v>
       </c>
       <c r="G21" s="3">
         <v>5900</v>
       </c>
       <c r="H21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I21" s="3">
         <v>9900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1434,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1889,64 +1958,70 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2225,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E41" s="3">
         <v>42200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,44 +2329,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,44 +2382,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E44" s="3">
         <v>45100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>37600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,43 +2435,46 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>300</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2390,44 +2488,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E46" s="3">
         <v>89500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>83100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>81300</v>
       </c>
       <c r="H46" s="3">
         <v>81300</v>
       </c>
       <c r="I46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="J46" s="3">
         <v>79000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,44 +2594,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E48" s="3">
         <v>35500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>39700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>38000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>57200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>58500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,44 +2806,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2900</v>
       </c>
       <c r="K52" s="3">
         <v>2900</v>
       </c>
       <c r="L52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +2912,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E54" s="3">
         <v>127400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>127500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3009,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,29 +3077,29 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1300</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>1300</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2980,44 +3113,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,44 +3166,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3098,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -3110,14 +3252,14 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,44 +3272,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3484,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3770,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E72" s="3">
         <v>10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +3982,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E76" s="3">
         <v>114800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>110600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>104000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>98000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2800</v>
       </c>
       <c r="G83" s="3">
         <v>2800</v>
       </c>
       <c r="H83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4633,11 +4866,11 @@
         <v>-2900</v>
       </c>
       <c r="H96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5057,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,46 +5072,49 @@
         <v>-2900</v>
       </c>
       <c r="F100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,144 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E8" s="3">
         <v>18900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,105 +810,111 @@
         <v>9200</v>
       </c>
       <c r="E9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F9" s="3">
         <v>8800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E10" s="3">
         <v>9700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6800</v>
       </c>
       <c r="H10" s="3">
         <v>6800</v>
       </c>
       <c r="I10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J10" s="3">
         <v>9600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-300</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1300</v>
       </c>
       <c r="L12" s="3">
         <v>1300</v>
       </c>
       <c r="M12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E17" s="3">
         <v>13900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,67 +1359,73 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E21" s="3">
         <v>8300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5900</v>
       </c>
       <c r="H21" s="3">
         <v>5900</v>
       </c>
       <c r="I21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J21" s="3">
         <v>9900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1961,67 +2031,73 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,47 +2312,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E41" s="3">
         <v>45100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,47 +2422,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,47 +2478,50 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E44" s="3">
         <v>47200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>45100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>37600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>31600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,46 +2534,49 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>300</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2491,47 +2590,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E46" s="3">
         <v>93600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>89500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>83100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>81300</v>
       </c>
       <c r="I46" s="3">
         <v>81300</v>
       </c>
       <c r="J46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K46" s="3">
         <v>79000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,47 +2702,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E48" s="3">
         <v>34400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>38000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>58500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,47 +2926,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2900</v>
       </c>
       <c r="L52" s="3">
         <v>2900</v>
       </c>
       <c r="M52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,47 +3038,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E54" s="3">
         <v>131200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>127400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>127500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,47 +3140,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,29 +3214,29 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1300</v>
       </c>
       <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>1300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3116,47 +3250,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,47 +3306,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>9500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3243,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3255,14 +3398,14 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3275,47 +3418,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,47 +3642,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,47 +3944,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E72" s="3">
         <v>11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,47 +4168,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E76" s="3">
         <v>115800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>114800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>110600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>104000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>98000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2800</v>
       </c>
       <c r="H83" s="3">
         <v>2800</v>
       </c>
       <c r="I83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4869,11 +5103,11 @@
         <v>-2900</v>
       </c>
       <c r="I96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,8 +5303,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5075,46 +5321,49 @@
         <v>-2900</v>
       </c>
       <c r="G100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>20500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E8" s="3">
         <v>21500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9200</v>
+        <v>8000</v>
       </c>
       <c r="E9" s="3">
         <v>9200</v>
       </c>
       <c r="F9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G9" s="3">
         <v>8800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E10" s="3">
         <v>12300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6800</v>
       </c>
       <c r="I10" s="3">
         <v>6800</v>
       </c>
       <c r="J10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K10" s="3">
         <v>9600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-300</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1300</v>
       </c>
       <c r="M12" s="3">
         <v>1300</v>
       </c>
       <c r="N12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,70 +1396,76 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E21" s="3">
         <v>11400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5900</v>
       </c>
       <c r="I21" s="3">
         <v>5900</v>
       </c>
       <c r="J21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K21" s="3">
         <v>9900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2034,70 +2104,76 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,50 +2399,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E41" s="3">
         <v>52300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,31 +2456,34 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2425,50 +2515,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,50 +2574,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E44" s="3">
         <v>47100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>47200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>45100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>37600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,49 +2633,52 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>300</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2593,50 +2692,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E46" s="3">
         <v>100000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>89500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>83100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>81300</v>
       </c>
       <c r="J46" s="3">
         <v>81300</v>
       </c>
       <c r="K46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="L46" s="3">
         <v>79000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,50 +2810,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E48" s="3">
         <v>31700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>57200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>58500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>63700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,50 +3046,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2900</v>
       </c>
       <c r="M52" s="3">
         <v>2900</v>
       </c>
       <c r="N52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,50 +3164,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E54" s="3">
         <v>135200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>127400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,50 +3271,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,13 +3328,16 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -3217,29 +3351,29 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1300</v>
       </c>
       <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>1300</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3253,50 +3387,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,50 +3446,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3389,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3401,14 +3544,14 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3421,50 +3564,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
         <v>6000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,50 +3800,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E66" s="3">
         <v>15900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,50 +4118,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,50 +4354,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E76" s="3">
         <v>119300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>110600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>104000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>98000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2800</v>
       </c>
       <c r="I83" s="3">
         <v>2800</v>
       </c>
       <c r="J83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,13 +5315,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2900</v>
+        <v>-3900</v>
       </c>
       <c r="E96" s="3">
         <v>-2900</v>
@@ -5106,11 +5340,11 @@
         <v>-2900</v>
       </c>
       <c r="J96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,13 +5549,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2900</v>
+        <v>-3900</v>
       </c>
       <c r="E100" s="3">
         <v>-2900</v>
@@ -5324,46 +5570,49 @@
         <v>-2900</v>
       </c>
       <c r="H100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>20500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>FTCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E8" s="3">
         <v>19200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E9" s="3">
         <v>8000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9200</v>
       </c>
       <c r="F9" s="3">
         <v>9200</v>
       </c>
       <c r="G9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H9" s="3">
         <v>8800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E10" s="3">
         <v>11200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6800</v>
       </c>
       <c r="J10" s="3">
         <v>6800</v>
       </c>
       <c r="K10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L10" s="3">
         <v>9600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
       </c>
       <c r="N12" s="3">
         <v>1300</v>
       </c>
       <c r="O12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1399,73 +1433,79 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E21" s="3">
         <v>7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5900</v>
       </c>
       <c r="J21" s="3">
         <v>5900</v>
       </c>
       <c r="K21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L21" s="3">
         <v>9900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2107,73 +2177,79 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,53 +2486,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E41" s="3">
         <v>46900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,17 +2546,20 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,8 +2575,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2529,42 +2622,42 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,53 +2670,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E44" s="3">
         <v>50700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>47100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>37600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>17000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2636,52 +2732,55 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>300</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2695,53 +2794,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E46" s="3">
         <v>100100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>93600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>89500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>83100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>81300</v>
       </c>
       <c r="K46" s="3">
         <v>81300</v>
       </c>
       <c r="L46" s="3">
+        <v>81300</v>
+      </c>
+      <c r="M46" s="3">
         <v>79000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,53 +2918,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E48" s="3">
         <v>30700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>58500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>63700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,53 +3166,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2900</v>
       </c>
       <c r="N52" s="3">
         <v>2900</v>
       </c>
       <c r="O52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,53 +3290,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E54" s="3">
         <v>133400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>122000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,53 +3402,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,16 +3462,19 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -3354,29 +3488,29 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1300</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>1300</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,44 +3536,44 @@
         <v>4500</v>
       </c>
       <c r="E59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,53 +3586,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3535,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3547,14 +3690,14 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3567,53 +3710,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,53 +3958,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E66" s="3">
         <v>14300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,53 +4292,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E72" s="3">
         <v>15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,53 +4540,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E76" s="3">
         <v>119200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>119300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>110600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>104000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>98000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2800</v>
       </c>
       <c r="J83" s="3">
         <v>2800</v>
       </c>
       <c r="K83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3">
         <v>3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,16 +5549,17 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2900</v>
       </c>
       <c r="F96" s="3">
         <v>-2900</v>
@@ -5343,11 +5577,11 @@
         <v>-2900</v>
       </c>
       <c r="K96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,16 +5795,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2900</v>
       </c>
       <c r="F100" s="3">
         <v>-2900</v>
@@ -5573,46 +5819,49 @@
         <v>-2900</v>
       </c>
       <c r="I100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
